--- a/testData/UserAccounts.xlsx
+++ b/testData/UserAccounts.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="51">
   <si>
     <t>Password</t>
   </si>
@@ -283,7 +283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -353,6 +353,46 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true"/>
@@ -994,7 +1034,7 @@
       <c r="E2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s" s="72">
+      <c r="F2" t="s" s="112">
         <v>47</v>
       </c>
     </row>
@@ -1014,7 +1054,7 @@
       <c r="E3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F3" t="s" s="74">
+      <c r="F3" t="s" s="114">
         <v>47</v>
       </c>
     </row>
@@ -1034,7 +1074,7 @@
       <c r="E4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F4" t="s" s="76">
+      <c r="F4" t="s" s="116">
         <v>47</v>
       </c>
     </row>
@@ -1054,7 +1094,7 @@
       <c r="E5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F5" t="s" s="78">
+      <c r="F5" t="s" s="118">
         <v>48</v>
       </c>
     </row>
@@ -1074,7 +1114,7 @@
       <c r="E6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F6" t="s" s="80">
+      <c r="F6" t="s" s="120">
         <v>48</v>
       </c>
     </row>
